--- a/Spreadsheet with simulation information.xlsx
+++ b/Spreadsheet with simulation information.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\connp\OneDrive\Documents\_Pitt\Traffic_Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92c614ef88483475/Documents/Pitt2022/CS1980/team-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4473A5AD-1EF3-4BC0-9281-A8B0B0E8898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{4473A5AD-1EF3-4BC0-9281-A8B0B0E8898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C178548-320E-4A40-93BD-E683496A65CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4259BDF6-7017-4B3A-89CE-363379D156E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4259BDF6-7017-4B3A-89CE-363379D156E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
     <t>Red Freeze</t>
   </si>
   <si>
-    <t>Control (No TL Manipulation)</t>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -126,27 +127,42 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="7000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="7000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>EMS Travel Time</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="7000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t> vs Traffic Density</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="7000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -163,16 +179,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="7000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -181,7 +194,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13698884147902252"/>
+          <c:y val="0.15910664326061177"/>
+          <c:w val="0.85719880319089459"/>
+          <c:h val="0.66959030018126919"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -487,7 +510,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Control (No TL Manipulation)</c:v>
+                  <c:v>Control</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -802,7 +825,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1:$E$2</c15:sqref>
@@ -947,7 +970,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-B9DC-442F-829F-E6B87BB60749}"/>
                   </c:ext>
@@ -960,7 +983,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$1:$G$2</c15:sqref>
@@ -970,7 +993,7 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Control (No TL Manipulation)</c:v>
+                        <c:v>Control</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1105,7 +1128,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-B9DC-442F-829F-E6B87BB60749}"/>
                   </c:ext>
@@ -1122,6 +1145,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="5000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Traffic</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="5000" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Congestion (High [1] - Low [19])</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="5000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1144,12 +1239,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1187,6 +1279,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="5000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time in Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6106890687727065E-3"/>
+              <c:y val="0.30924565325465259"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1203,12 +1358,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1230,37 +1382,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1319,27 +1440,42 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="7000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="7000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Congestion Clearing</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="7000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t> Time vs Traffic Density</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="7000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1356,16 +1492,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="7000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1374,7 +1507,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1496491299981208"/>
+          <c:y val="0.18695219006524544"/>
+          <c:w val="0.64003050971097819"/>
+          <c:h val="0.66427458825446961"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1680,7 +1823,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Control (No TL Manipulation)</c:v>
+                  <c:v>Control</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1995,7 +2138,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1:$D$2</c15:sqref>
@@ -2140,7 +2283,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-D2EE-4DCE-8DFF-B21F17314932}"/>
                   </c:ext>
@@ -2153,7 +2296,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$1:$F$2</c15:sqref>
@@ -2163,7 +2306,7 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Control (No TL Manipulation)</c:v>
+                        <c:v>Control</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2298,7 +2441,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D2EE-4DCE-8DFF-B21F17314932}"/>
                   </c:ext>
@@ -2315,6 +2458,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="5000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Traffic Congestion (High [1] - Low[19])</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2337,16 +2535,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2380,6 +2575,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="5000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time in Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.0992632267477341E-3"/>
+              <c:y val="0.33546033813762866"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2396,16 +2654,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2425,6 +2680,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76972860411287747"/>
+          <c:y val="0.29755785791235523"/>
+          <c:w val="0.22553853295422671"/>
+          <c:h val="0.35028751583143819"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2438,16 +2703,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3582,19 +3844,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>145342</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>257968</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="10" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221766DF-A779-6940-D027-7AC2B312F2A7}"/>
@@ -3617,20 +3879,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>460378</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>41361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>138907</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="17" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D108EED0-10D0-4E14-92DA-8E5AAC169E6F}"/>
@@ -3654,6 +3916,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3955,22 +4221,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDC7A1F-594B-4F6A-AA70-42FD9DBE002B}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="BO26" sqref="BO26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3984,12 +4250,12 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4012,7 +4278,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4035,7 +4301,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4058,7 +4324,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4081,7 +4347,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4104,7 +4370,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4127,7 +4393,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4150,7 +4416,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4173,7 +4439,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4196,7 +4462,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4219,7 +4485,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4242,7 +4508,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4265,7 +4531,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4288,7 +4554,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4311,7 +4577,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -4334,7 +4600,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -4357,7 +4623,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10</v>
       </c>
@@ -4380,7 +4646,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>16</v>
       </c>
@@ -4403,7 +4669,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>17</v>
       </c>
@@ -4426,7 +4692,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>20</v>
       </c>

--- a/Spreadsheet with simulation information.xlsx
+++ b/Spreadsheet with simulation information.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92c614ef88483475/Documents/Pitt2022/CS1980/team-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\connp\OneDrive\Documents\_Pitt\Traffic_Capstone\team-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{4473A5AD-1EF3-4BC0-9281-A8B0B0E8898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C178548-320E-4A40-93BD-E683496A65CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649A0C4F-8987-4F1D-A3C7-2D36F1061F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4259BDF6-7017-4B3A-89CE-363379D156E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4259BDF6-7017-4B3A-89CE-363379D156E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -214,9 +213,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>Sheet1!$B$1:$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Green Corridor</c:v>
                 </c:pt>
@@ -238,14 +237,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -262,31 +261,49 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,14 +313,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$3:$B$35</c15:sqref>
+                    <c15:sqref>Sheet1!$B$2:$B$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$3:$B$7,Sheet1!$B$9:$B$10,Sheet1!$B$13:$B$17,Sheet1!$B$20:$B$21)</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>51</c:v>
                 </c:pt>
@@ -320,31 +337,49 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,9 +395,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:f>Sheet1!$D$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Red Freeze</c:v>
                 </c:pt>
@@ -384,14 +419,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -408,31 +443,49 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,14 +495,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$3:$D$35</c15:sqref>
+                    <c15:sqref>Sheet1!$D$2:$D$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$3:$D$7,Sheet1!$D$9:$D$10,Sheet1!$D$13:$D$17,Sheet1!$D$20:$D$21)</c:f>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -466,31 +519,49 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,9 +577,9 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$F$2</c:f>
+              <c:f>Sheet1!$F$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Control</c:v>
                 </c:pt>
@@ -530,14 +601,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -554,31 +625,49 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,14 +677,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$F$3:$F$35</c15:sqref>
+                    <c15:sqref>Sheet1!$F$2:$F$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$F$3:$F$7,Sheet1!$F$9:$F$10,Sheet1!$F$13:$F$17,Sheet1!$F$20:$F$21)</c:f>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -612,31 +701,49 @@
                   <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,15 +777,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$1:$C$2</c15:sqref>
+                          <c15:sqref>Sheet1!$C$1:$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Green Corridor</c:v>
-                      </c:pt>
+                      <c:ptCount val="1"/>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -697,16 +801,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -723,31 +827,49 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>7</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>8</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>11</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>12</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>15</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -757,16 +879,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$C$3:$C$35</c15:sqref>
+                          <c15:sqref>Sheet1!$C$2:$C$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$C$3:$C$7,Sheet1!$C$9:$C$10,Sheet1!$C$13:$C$17,Sheet1!$C$20:$C$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$C$2:$C$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>3980</c:v>
                       </c:pt>
@@ -783,31 +905,49 @@
                         <c:v>833</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>723</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>626</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>551</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>8335</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7424</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>395</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>386</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>374</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>374</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>339</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>4106</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4377</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>294</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>281</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4052</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -828,15 +968,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$1:$E$2</c15:sqref>
+                          <c15:sqref>Sheet1!$E$1:$E$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Red Freeze</c:v>
-                      </c:pt>
+                      <c:ptCount val="1"/>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -855,16 +992,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -881,31 +1018,49 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>7</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>8</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>11</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>12</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>15</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -915,16 +1070,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$E$3:$E$35</c15:sqref>
+                          <c15:sqref>Sheet1!$E$2:$E$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$E$3:$E$7,Sheet1!$E$9:$E$10,Sheet1!$E$13:$E$17,Sheet1!$E$20:$E$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$E$2:$E$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>4072</c:v>
                       </c:pt>
@@ -941,31 +1096,49 @@
                         <c:v>929</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>9562</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>647</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>587</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>499</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>417</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>445</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>402</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>401</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>385</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>348</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>359</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>295</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>294</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>295</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>260</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -986,15 +1159,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$1:$G$2</c15:sqref>
+                          <c15:sqref>Sheet1!$G$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Control</c:v>
-                      </c:pt>
+                      <c:ptCount val="1"/>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -1013,16 +1183,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1039,31 +1209,49 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>7</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>8</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>11</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>12</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>15</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1073,16 +1261,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$G$3:$G$35</c15:sqref>
+                          <c15:sqref>Sheet1!$G$2:$G$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$G$3:$G$7,Sheet1!$G$9:$G$10,Sheet1!$G$13:$G$17,Sheet1!$G$20:$G$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$G$2:$G$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>4096</c:v>
                       </c:pt>
@@ -1099,31 +1287,49 @@
                         <c:v>865</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>713</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>657</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>604</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>508</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>428</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>507</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>406</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>380</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>385</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>318</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>323</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>303</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>292</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>301</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3149</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1527,12 +1733,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:f>Sheet1!$C$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Green Corridor</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1551,14 +1754,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1575,31 +1778,49 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,14 +1830,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$3:$C$35</c15:sqref>
+                    <c15:sqref>Sheet1!$C$2:$C$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$C$3:$C$7,Sheet1!$C$9:$C$10,Sheet1!$C$13:$C$17,Sheet1!$C$20:$C$21)</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>3980</c:v>
                 </c:pt>
@@ -1633,31 +1854,49 @@
                   <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>626</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>551</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>8335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7424</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>395</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>374</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>374</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>339</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>4106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4377</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,12 +1912,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1:$E$2</c:f>
+              <c:f>Sheet1!$E$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Red Freeze</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1697,14 +1933,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1721,31 +1957,49 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,14 +2009,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$3:$E$35</c15:sqref>
+                    <c15:sqref>Sheet1!$E$2:$E$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$E$3:$E$7,Sheet1!$E$9:$E$10,Sheet1!$E$13:$E$17,Sheet1!$E$20:$E$21)</c:f>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>4072</c:v>
                 </c:pt>
@@ -1779,31 +2033,49 @@
                   <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>9562</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>647</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>587</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>445</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>402</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>401</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>385</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>348</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,12 +2091,9 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$G$2</c:f>
+              <c:f>Sheet1!$G$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Control</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1843,14 +2112,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1867,31 +2136,49 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,14 +2188,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$G$3:$G$35</c15:sqref>
+                    <c15:sqref>Sheet1!$G$2:$G$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$G$3:$G$7,Sheet1!$G$9:$G$10,Sheet1!$G$13:$G$17,Sheet1!$G$20:$G$21)</c:f>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>4096</c:v>
                 </c:pt>
@@ -1925,31 +2212,49 @@
                   <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>657</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>604</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>507</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>406</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>380</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>385</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>292</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,12 +2288,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$B$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>Green Corridor</c:v>
                       </c:pt>
@@ -2010,16 +2315,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -2036,31 +2341,49 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>7</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>8</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>11</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>12</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>15</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2070,16 +2393,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$3:$B$35</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$B$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$B$3:$B$7,Sheet1!$B$9:$B$10,Sheet1!$B$13:$B$17,Sheet1!$B$20:$B$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$B$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>51</c:v>
                       </c:pt>
@@ -2096,31 +2419,49 @@
                         <c:v>56</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>62</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>70</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
                         <c:v>67</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="9">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>69</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>71</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>49</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>51</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>60</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>67</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2141,12 +2482,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$1:$D$2</c15:sqref>
+                          <c15:sqref>Sheet1!$D$1:$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>Red Freeze</c:v>
                       </c:pt>
@@ -2168,16 +2509,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -2194,31 +2535,49 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>7</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>8</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>11</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>12</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>15</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2228,16 +2587,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$D$3:$D$35</c15:sqref>
+                          <c15:sqref>Sheet1!$D$2:$D$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$D$3:$D$7,Sheet1!$D$9:$D$10,Sheet1!$D$13:$D$17,Sheet1!$D$20:$D$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$D$2:$D$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>54</c:v>
                       </c:pt>
@@ -2254,31 +2613,49 @@
                         <c:v>63</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>62</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>67</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>57</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>64</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>62</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>54</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>58</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>57</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>51</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2299,12 +2676,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$1:$F$2</c15:sqref>
+                          <c15:sqref>Sheet1!$F$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>Control</c:v>
                       </c:pt>
@@ -2326,16 +2703,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$3:$A$35</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$3:$A$7,Sheet1!$A$9:$A$10,Sheet1!$A$13:$A$17,Sheet1!$A$20:$A$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -2352,31 +2729,49 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>7</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>8</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>11</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>12</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>15</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2386,16 +2781,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$F$3:$F$35</c15:sqref>
+                          <c15:sqref>Sheet1!$F$2:$F$34</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$F$3:$F$7,Sheet1!$F$9:$F$10,Sheet1!$F$13:$F$17,Sheet1!$F$20:$F$21)</c15:sqref>
+                          <c15:sqref>Sheet1!$F$2:$F$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="14"/>
+                      <c:ptCount val="20"/>
                       <c:pt idx="0">
                         <c:v>84</c:v>
                       </c:pt>
@@ -2412,31 +2807,49 @@
                         <c:v>174</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>94</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="7">
                         <c:v>83</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="8">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>80</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="11">
                         <c:v>70</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="12">
                         <c:v>77</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="13">
                         <c:v>95</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="14">
                         <c:v>88</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="15">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
                         <c:v>74</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="18">
                         <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>91</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3845,14 +4258,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>145342</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138907</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>257968</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>76643</xdr:rowOff>
+      <xdr:rowOff>165940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3916,10 +4329,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4219,24 +4628,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDC7A1F-594B-4F6A-AA70-42FD9DBE002B}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
-      <selection activeCell="BO26" sqref="BO26"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4250,468 +4662,463 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>3980</v>
+      </c>
+      <c r="D2">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>4072</v>
+      </c>
+      <c r="F2">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>4096</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>2030</v>
+      </c>
+      <c r="D3">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>2117</v>
+      </c>
+      <c r="F3">
+        <v>109</v>
+      </c>
+      <c r="G3">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>51</v>
       </c>
-      <c r="C3">
-        <v>3980</v>
-      </c>
-      <c r="D3">
-        <v>54</v>
-      </c>
-      <c r="E3">
-        <v>4072</v>
-      </c>
-      <c r="F3">
-        <v>84</v>
-      </c>
-      <c r="G3">
-        <v>4096</v>
+      <c r="C4">
+        <v>1364</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>1371</v>
+      </c>
+      <c r="F4">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>1378</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>2030</v>
-      </c>
-      <c r="D4">
-        <v>73</v>
-      </c>
-      <c r="E4">
-        <v>2117</v>
-      </c>
-      <c r="F4">
-        <v>109</v>
-      </c>
-      <c r="G4">
-        <v>2056</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>1060</v>
+      </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>1105</v>
+      </c>
+      <c r="F5">
+        <v>130</v>
+      </c>
+      <c r="G5">
+        <v>1031</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>1364</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>833</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>929</v>
+      </c>
+      <c r="F6">
+        <v>174</v>
+      </c>
+      <c r="G6">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>723</v>
+      </c>
+      <c r="D7">
+        <v>93</v>
+      </c>
+      <c r="E7">
+        <v>9562</v>
+      </c>
+      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>62</v>
       </c>
-      <c r="E5">
-        <v>1371</v>
-      </c>
-      <c r="F5">
+      <c r="C8">
+        <v>626</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>647</v>
+      </c>
+      <c r="F8">
+        <v>94</v>
+      </c>
+      <c r="G8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>551</v>
+      </c>
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>587</v>
+      </c>
+      <c r="F9">
+        <v>83</v>
+      </c>
+      <c r="G9">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>8335</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>499</v>
+      </c>
+      <c r="F10">
+        <v>79</v>
+      </c>
+      <c r="G10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>72</v>
       </c>
-      <c r="G5">
-        <v>1378</v>
+      <c r="C11">
+        <v>7424</v>
+      </c>
+      <c r="D11">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>417</v>
+      </c>
+      <c r="F11">
+        <v>85</v>
+      </c>
+      <c r="G11">
+        <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>395</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>445</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>69</v>
       </c>
-      <c r="C6">
-        <v>1060</v>
-      </c>
-      <c r="D6">
-        <v>69</v>
-      </c>
-      <c r="E6">
-        <v>1105</v>
-      </c>
-      <c r="F6">
-        <v>130</v>
-      </c>
-      <c r="G6">
-        <v>1031</v>
+      <c r="C13">
+        <v>386</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>402</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>56</v>
-      </c>
-      <c r="C7">
-        <v>833</v>
-      </c>
-      <c r="D7">
-        <v>63</v>
-      </c>
-      <c r="E7">
-        <v>929</v>
-      </c>
-      <c r="F7">
-        <v>174</v>
-      </c>
-      <c r="G7">
-        <v>865</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>374</v>
+      </c>
+      <c r="D14">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>401</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>62</v>
-      </c>
-      <c r="C9">
-        <v>626</v>
-      </c>
-      <c r="D9">
-        <v>62</v>
-      </c>
-      <c r="E9">
-        <v>647</v>
-      </c>
-      <c r="F9">
-        <v>94</v>
-      </c>
-      <c r="G9">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>70</v>
-      </c>
-      <c r="C10">
-        <v>551</v>
-      </c>
-      <c r="D10">
-        <v>67</v>
-      </c>
-      <c r="E10">
-        <v>587</v>
-      </c>
-      <c r="F10">
-        <v>83</v>
-      </c>
-      <c r="G10">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>67</v>
-      </c>
-      <c r="C13">
-        <v>395</v>
-      </c>
-      <c r="D13">
-        <v>57</v>
-      </c>
-      <c r="E13">
-        <v>445</v>
-      </c>
-      <c r="F13">
-        <v>80</v>
-      </c>
-      <c r="G13">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>69</v>
-      </c>
-      <c r="C14">
-        <v>386</v>
-      </c>
-      <c r="D14">
-        <v>64</v>
-      </c>
-      <c r="E14">
-        <v>402</v>
-      </c>
-      <c r="F14">
-        <v>70</v>
-      </c>
-      <c r="G14">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>374</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E15">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="F15">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G15">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="F16">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G16">
-        <v>385</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>4106</v>
+      </c>
+      <c r="D17">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>359</v>
+      </c>
+      <c r="F17">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>4377</v>
+      </c>
+      <c r="D18">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <v>295</v>
+      </c>
+      <c r="F18">
+        <v>79</v>
+      </c>
+      <c r="G18">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>294</v>
+      </c>
+      <c r="D19">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <v>294</v>
+      </c>
+      <c r="F19">
+        <v>74</v>
+      </c>
+      <c r="G19">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>281</v>
+      </c>
+      <c r="D20">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>295</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>4052</v>
+      </c>
+      <c r="D21">
         <v>51</v>
       </c>
-      <c r="C17">
-        <v>339</v>
-      </c>
-      <c r="D17">
-        <v>58</v>
-      </c>
-      <c r="E17">
-        <v>348</v>
-      </c>
-      <c r="F17">
-        <v>88</v>
-      </c>
-      <c r="G17">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>60</v>
-      </c>
-      <c r="C20">
-        <v>294</v>
-      </c>
-      <c r="D20">
-        <v>57</v>
-      </c>
-      <c r="E20">
-        <v>294</v>
-      </c>
-      <c r="F20">
-        <v>74</v>
-      </c>
-      <c r="G20">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>50</v>
-      </c>
-      <c r="C21">
-        <v>281</v>
-      </c>
-      <c r="D21">
-        <v>45</v>
-      </c>
       <c r="E21">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="F21">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G21">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>55</v>
-      </c>
-      <c r="C30">
-        <v>723</v>
-      </c>
-      <c r="D30">
-        <v>93</v>
-      </c>
-      <c r="E30">
-        <v>9562</v>
-      </c>
-      <c r="F30">
-        <v>53</v>
-      </c>
-      <c r="G30">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>67</v>
-      </c>
-      <c r="C31">
-        <v>8335</v>
-      </c>
-      <c r="D31">
-        <v>70</v>
-      </c>
-      <c r="E31">
-        <v>499</v>
-      </c>
-      <c r="F31">
-        <v>79</v>
-      </c>
-      <c r="G31">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>72</v>
-      </c>
-      <c r="C32">
-        <v>7424</v>
-      </c>
-      <c r="D32">
-        <v>69</v>
-      </c>
-      <c r="E32">
-        <v>417</v>
-      </c>
-      <c r="F32">
-        <v>85</v>
-      </c>
-      <c r="G32">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>16</v>
-      </c>
-      <c r="B33">
-        <v>71</v>
-      </c>
-      <c r="C33">
-        <v>4106</v>
-      </c>
-      <c r="D33">
-        <v>66</v>
-      </c>
-      <c r="E33">
-        <v>359</v>
-      </c>
-      <c r="F33">
-        <v>71</v>
-      </c>
-      <c r="G33">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>17</v>
-      </c>
-      <c r="B34">
-        <v>57</v>
-      </c>
-      <c r="C34">
-        <v>4377</v>
-      </c>
-      <c r="D34">
-        <v>63</v>
-      </c>
-      <c r="E34">
-        <v>295</v>
-      </c>
-      <c r="F34">
-        <v>79</v>
-      </c>
-      <c r="G34">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>20</v>
-      </c>
-      <c r="B35">
-        <v>67</v>
-      </c>
-      <c r="C35">
-        <v>4052</v>
-      </c>
-      <c r="D35">
-        <v>51</v>
-      </c>
-      <c r="E35">
-        <v>260</v>
-      </c>
-      <c r="F35">
-        <v>91</v>
-      </c>
-      <c r="G35">
         <v>3149</v>
       </c>
     </row>

--- a/Spreadsheet with simulation information.xlsx
+++ b/Spreadsheet with simulation information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\connp\OneDrive\Documents\_Pitt\Traffic_Capstone\team-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649A0C4F-8987-4F1D-A3C7-2D36F1061F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B3E61D-55C6-4CB5-91ED-3ABAD94CEDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4259BDF6-7017-4B3A-89CE-363379D156E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Traffic Density</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Heavy</t>
   </si>
 </sst>
 </file>
@@ -126,7 +135,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="7000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="6600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -136,7 +145,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="7000">
+              <a:rPr lang="en-US" sz="6600">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -146,7 +155,7 @@
               <a:t>EMS Travel Time</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="7000" baseline="0">
+              <a:rPr lang="en-US" sz="6600" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -155,7 +164,7 @@
               </a:rPr>
               <a:t> vs Traffic Density</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="7000">
+            <a:endParaRPr lang="en-US" sz="6600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -178,7 +187,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="7000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="6600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -200,7 +209,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.13698884147902252"/>
           <c:y val="0.15910664326061177"/>
-          <c:w val="0.85719880319089459"/>
+          <c:w val="0.64849295427449416"/>
           <c:h val="0.66959030018126919"/>
         </c:manualLayout>
       </c:layout>
@@ -213,7 +222,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -233,160 +242,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Light</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Medium</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Heavy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>67</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9DC-442F-829F-E6B87BB60749}"/>
+              <c16:uniqueId val="{00000000-65DF-4679-8D11-885A37EBAD51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -395,7 +287,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -415,160 +307,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Light</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Medium</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Heavy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$2:$D$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B9DC-442F-829F-E6B87BB60749}"/>
+              <c16:uniqueId val="{00000001-65DF-4679-8D11-885A37EBAD51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -577,7 +352,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$F$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -597,152 +372,35 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Light</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Medium</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Heavy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$F$2:$F$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:f>Sheet1!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -750,7 +408,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B9DC-442F-829F-E6B87BB60749}"/>
+              <c16:uniqueId val="{00000002-65DF-4679-8D11-885A37EBAD51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -777,12 +435,15 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$1:$C$1</c15:sqref>
+                          <c15:sqref>Sheet1!$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Green Corridor</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -797,164 +458,55 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Light</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Medium</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Heavy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
+                          <c15:sqref>Sheet1!$C$2:$C$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1</c:v>
+                        <c:v>183</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>339</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$C$2:$C$34</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$2:$C$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>3980</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2030</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1364</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1060</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>833</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>723</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>626</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>551</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8335</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>7424</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>395</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>386</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>374</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>374</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>339</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>4106</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>4377</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>294</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>281</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>4052</c:v>
+                        <c:v>636</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-B9DC-442F-829F-E6B87BB60749}"/>
+                    <c16:uniqueId val="{00000003-65DF-4679-8D11-885A37EBAD51}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -968,12 +520,15 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$1:$E$1</c15:sqref>
+                          <c15:sqref>Sheet1!$E$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Red Freeze</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -988,164 +543,55 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Light</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Medium</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Heavy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
+                          <c15:sqref>Sheet1!$E$2:$E$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1</c:v>
+                        <c:v>221</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>364</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$E$2:$E$34</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$2:$E$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>4072</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2117</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1371</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1105</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>929</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>9562</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>647</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>587</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>499</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>417</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>445</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>402</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>401</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>385</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>348</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>359</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>294</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>260</c:v>
+                        <c:v>699</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-B9DC-442F-829F-E6B87BB60749}"/>
+                    <c16:uniqueId val="{00000004-65DF-4679-8D11-885A37EBAD51}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1159,12 +605,15 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Control</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -1179,164 +628,55 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Light</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Medium</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Heavy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
+                          <c15:sqref>Sheet1!$G$2:$G$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1</c:v>
+                        <c:v>203</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>375</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$G$2:$G$34</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$2:$G$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>4096</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2056</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1378</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1031</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>865</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>713</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>657</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>604</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>508</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>428</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>507</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>406</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>380</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>385</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>318</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>323</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>292</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>301</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>3149</c:v>
+                        <c:v>706</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-B9DC-442F-829F-E6B87BB60749}"/>
+                    <c16:uniqueId val="{00000005-65DF-4679-8D11-885A37EBAD51}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1385,7 +725,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> Congestion (High [1] - Low [19])</a:t>
+                  <a:t> Congestion</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="5000">
                   <a:solidFill>
@@ -1509,7 +849,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Time in Steps</a:t>
+                  <a:t>Time in Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1588,6 +928,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78952546332533979"/>
+          <c:y val="0.36043350035790983"/>
+          <c:w val="0.19872370423354782"/>
+          <c:h val="0.24821865903125745"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1646,7 +1027,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="7000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="6000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1656,7 +1037,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="7000">
+              <a:rPr lang="en-US" sz="6000">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1666,7 +1047,7 @@
               <a:t>Congestion Clearing</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="7000" baseline="0">
+              <a:rPr lang="en-US" sz="6000" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1675,7 +1056,7 @@
               </a:rPr>
               <a:t> Time vs Traffic Density</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="7000">
+            <a:endParaRPr lang="en-US" sz="6000">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1698,7 +1079,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="7000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="6000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1733,9 +1114,12 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Green Corridor</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1750,160 +1134,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Light</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Medium</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Heavy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$2:$C$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3980</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2030</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1364</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>723</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>626</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8335</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7424</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4106</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4052</c:v>
+                  <c:v>636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D2EE-4DCE-8DFF-B21F17314932}"/>
+              <c16:uniqueId val="{00000000-C2BC-4F79-9324-E163447DFEFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1912,9 +1179,12 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1:$E$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Red Freeze</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1929,160 +1199,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Light</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Medium</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Heavy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$2:$E$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:f>Sheet1!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4072</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2117</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1371</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1105</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9562</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>647</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>260</c:v>
+                  <c:v>699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D2EE-4DCE-8DFF-B21F17314932}"/>
+              <c16:uniqueId val="{00000001-C2BC-4F79-9324-E163447DFEFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2091,9 +1244,12 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1:$G$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2108,160 +1264,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Light</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Medium</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Heavy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$G$2:$G$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4096</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2056</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1378</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>713</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3149</c:v>
+                  <c:v>706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D2EE-4DCE-8DFF-B21F17314932}"/>
+              <c16:uniqueId val="{00000002-C2BC-4F79-9324-E163447DFEFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2288,7 +1327,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$B$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2311,164 +1350,55 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Light</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Medium</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Heavy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$B$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>43</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$2:$B$34</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$B$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>67</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>67</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>57</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>67</c:v>
+                        <c:v>48</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-D2EE-4DCE-8DFF-B21F17314932}"/>
+                    <c16:uniqueId val="{00000003-C2BC-4F79-9324-E163447DFEFF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2482,7 +1412,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$1:$D$1</c15:sqref>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2505,164 +1435,55 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Light</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Medium</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Heavy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
+                          <c15:sqref>Sheet1!$D$2:$D$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1</c:v>
+                        <c:v>41</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>62</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$D$2:$D$34</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$2:$D$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>67</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>57</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>58</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
                         <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>57</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>51</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-D2EE-4DCE-8DFF-B21F17314932}"/>
+                    <c16:uniqueId val="{00000004-C2BC-4F79-9324-E163447DFEFF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2676,7 +1497,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2699,156 +1520,47 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Light</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Medium</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Heavy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$A$34</c15:sqref>
-                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$21</c15:sqref>
+                          <c15:sqref>Sheet1!$F$2:$F$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>1</c:v>
+                        <c:v>46</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>79</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$F$2:$F$34</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$2:$F$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>109</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>174</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>53</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>94</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>83</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
                         <c:v>91</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2856,7 +1568,7 @@
                 </c:val>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-D2EE-4DCE-8DFF-B21F17314932}"/>
+                    <c16:uniqueId val="{00000005-C2BC-4F79-9324-E163447DFEFF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2895,11 +1607,19 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Traffic Congestion (High [1] - Low[19])</a:t>
+                  <a:t>Traffic Congestion</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.31825002425092463"/>
+              <c:y val="0.90955005286142265"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3012,7 +1732,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Time in Steps</a:t>
+                  <a:t>Time in Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3021,8 +1741,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.0992632267477341E-3"/>
-              <c:y val="0.33546033813762866"/>
+              <c:x val="8.8380408349284911E-3"/>
+              <c:y val="0.30132774747111901"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3097,10 +1817,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76972860411287747"/>
-          <c:y val="0.29755785791235523"/>
-          <c:w val="0.22553853295422671"/>
-          <c:h val="0.35028751583143819"/>
+          <c:x val="0.80133126405309785"/>
+          <c:y val="0.35702343116201379"/>
+          <c:w val="0.19777603381844217"/>
+          <c:h val="0.22519455977093769"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3116,7 +1836,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="5000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4256,27 +2976,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>145342</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>49610</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>257968</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>165940</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 1">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221766DF-A779-6940-D027-7AC2B312F2A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E578B048-35A3-434E-B0FB-8E38453033C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4292,23 +3014,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>460378</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>41361</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561920</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>138907</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 2">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D108EED0-10D0-4E14-92DA-8E5AAC169E6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090CFAC2-DC9B-4A4A-91EE-3C4258D362F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4628,505 +3350,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDC7A1F-594B-4F6A-AA70-42FD9DBE002B}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>3980</v>
+        <v>183</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>4072</v>
+        <v>221</v>
       </c>
       <c r="F2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>4096</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>2030</v>
+        <v>339</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>2117</v>
+        <v>364</v>
       </c>
       <c r="F3">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>2056</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>1364</v>
+        <v>636</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>1371</v>
+        <v>699</v>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G4">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>69</v>
-      </c>
-      <c r="C5">
-        <v>1060</v>
-      </c>
-      <c r="D5">
-        <v>69</v>
-      </c>
-      <c r="E5">
-        <v>1105</v>
-      </c>
-      <c r="F5">
-        <v>130</v>
-      </c>
-      <c r="G5">
-        <v>1031</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>56</v>
-      </c>
-      <c r="C6">
-        <v>833</v>
-      </c>
-      <c r="D6">
-        <v>63</v>
-      </c>
-      <c r="E6">
-        <v>929</v>
-      </c>
-      <c r="F6">
-        <v>174</v>
-      </c>
-      <c r="G6">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>55</v>
-      </c>
-      <c r="C7">
-        <v>723</v>
-      </c>
-      <c r="D7">
-        <v>93</v>
-      </c>
-      <c r="E7">
-        <v>9562</v>
-      </c>
-      <c r="F7">
-        <v>53</v>
-      </c>
-      <c r="G7">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>626</v>
-      </c>
-      <c r="D8">
-        <v>62</v>
-      </c>
-      <c r="E8">
-        <v>647</v>
-      </c>
-      <c r="F8">
-        <v>94</v>
-      </c>
-      <c r="G8">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>551</v>
-      </c>
-      <c r="D9">
-        <v>67</v>
-      </c>
-      <c r="E9">
-        <v>587</v>
-      </c>
-      <c r="F9">
-        <v>83</v>
-      </c>
-      <c r="G9">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>67</v>
-      </c>
-      <c r="C10">
-        <v>8335</v>
-      </c>
-      <c r="D10">
-        <v>70</v>
-      </c>
-      <c r="E10">
-        <v>499</v>
-      </c>
-      <c r="F10">
-        <v>79</v>
-      </c>
-      <c r="G10">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>7424</v>
-      </c>
-      <c r="D11">
-        <v>69</v>
-      </c>
-      <c r="E11">
-        <v>417</v>
-      </c>
-      <c r="F11">
-        <v>85</v>
-      </c>
-      <c r="G11">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>67</v>
-      </c>
-      <c r="C12">
-        <v>395</v>
-      </c>
-      <c r="D12">
-        <v>57</v>
-      </c>
-      <c r="E12">
-        <v>445</v>
-      </c>
-      <c r="F12">
-        <v>80</v>
-      </c>
-      <c r="G12">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>69</v>
-      </c>
-      <c r="C13">
-        <v>386</v>
-      </c>
-      <c r="D13">
-        <v>64</v>
-      </c>
-      <c r="E13">
-        <v>402</v>
-      </c>
-      <c r="F13">
-        <v>70</v>
-      </c>
-      <c r="G13">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>71</v>
-      </c>
-      <c r="C14">
-        <v>374</v>
-      </c>
-      <c r="D14">
-        <v>62</v>
-      </c>
-      <c r="E14">
-        <v>401</v>
-      </c>
-      <c r="F14">
-        <v>77</v>
-      </c>
-      <c r="G14">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>49</v>
-      </c>
-      <c r="C15">
-        <v>374</v>
-      </c>
-      <c r="D15">
-        <v>54</v>
-      </c>
-      <c r="E15">
-        <v>385</v>
-      </c>
-      <c r="F15">
-        <v>95</v>
-      </c>
-      <c r="G15">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>51</v>
-      </c>
-      <c r="C16">
-        <v>339</v>
-      </c>
-      <c r="D16">
-        <v>58</v>
-      </c>
-      <c r="E16">
-        <v>348</v>
-      </c>
-      <c r="F16">
-        <v>88</v>
-      </c>
-      <c r="G16">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>4106</v>
-      </c>
-      <c r="D17">
-        <v>66</v>
-      </c>
-      <c r="E17">
-        <v>359</v>
-      </c>
-      <c r="F17">
-        <v>71</v>
-      </c>
-      <c r="G17">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>57</v>
-      </c>
-      <c r="C18">
-        <v>4377</v>
-      </c>
-      <c r="D18">
-        <v>63</v>
-      </c>
-      <c r="E18">
-        <v>295</v>
-      </c>
-      <c r="F18">
-        <v>79</v>
-      </c>
-      <c r="G18">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>60</v>
-      </c>
-      <c r="C19">
-        <v>294</v>
-      </c>
-      <c r="D19">
-        <v>57</v>
-      </c>
-      <c r="E19">
-        <v>294</v>
-      </c>
-      <c r="F19">
-        <v>74</v>
-      </c>
-      <c r="G19">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>281</v>
-      </c>
-      <c r="D20">
-        <v>45</v>
-      </c>
-      <c r="E20">
-        <v>295</v>
-      </c>
-      <c r="F20">
-        <v>60</v>
-      </c>
-      <c r="G20">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>67</v>
-      </c>
-      <c r="C21">
-        <v>4052</v>
-      </c>
-      <c r="D21">
-        <v>51</v>
-      </c>
-      <c r="E21">
-        <v>260</v>
-      </c>
-      <c r="F21">
-        <v>91</v>
-      </c>
-      <c r="G21">
-        <v>3149</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
